--- a/regionseng/7/trade/trade.xlsx
+++ b/regionseng/7/trade/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="7380" windowWidth="21360" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8850"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,13 +64,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;\-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,12 +154,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -205,7 +198,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -244,12 +237,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -557,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -569,7 +556,7 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17.25" customHeight="1">
+    <row r="1" spans="1:18" ht="17.25" customHeight="1">
       <c r="A1" s="16" t="s">
         <v>5</v>
       </c>
@@ -588,8 +575,10 @@
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
       <c r="P1" s="16"/>
-    </row>
-    <row r="3" spans="1:16" s="6" customFormat="1">
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+    </row>
+    <row r="3" spans="1:18" s="6" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2006</v>
@@ -636,8 +625,14 @@
       <c r="P3" s="4">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="4">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="4">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -683,11 +678,17 @@
       <c r="O4" s="8">
         <v>28.5</v>
       </c>
-      <c r="P4" s="17">
+      <c r="P4" s="8">
         <v>35.299999999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="8">
+        <v>44.1</v>
+      </c>
+      <c r="R4" s="8">
+        <v>45.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
@@ -733,11 +734,17 @@
       <c r="O5" s="8">
         <v>6.4</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="8">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="8">
+        <v>13.2</v>
+      </c>
+      <c r="R5" s="8">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
@@ -783,11 +790,17 @@
       <c r="O6" s="9">
         <v>580</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="9">
         <v>360</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="9">
+        <v>370</v>
+      </c>
+      <c r="R6" s="9">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="7" t="s">
         <v>2</v>
       </c>
@@ -833,11 +846,17 @@
       <c r="O7" s="9">
         <v>204</v>
       </c>
-      <c r="P7" s="18">
+      <c r="P7" s="9">
         <v>142</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="9">
+        <v>158</v>
+      </c>
+      <c r="R7" s="9">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
@@ -883,11 +902,17 @@
       <c r="O8" s="8">
         <v>590</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="8">
         <v>660.9</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="8">
+        <v>565.29999999999995</v>
+      </c>
+      <c r="R8" s="8">
+        <v>542.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
@@ -933,11 +958,17 @@
       <c r="O9" s="8">
         <v>2.9</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="8">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="R9" s="8">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -983,11 +1014,17 @@
       <c r="O10" s="8">
         <v>1.4</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="8">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -1033,11 +1070,17 @@
       <c r="O11" s="8">
         <v>3.6</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="8">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="8">
+        <v>11.8</v>
+      </c>
+      <c r="R11" s="8">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -1083,11 +1126,17 @@
       <c r="O12" s="8">
         <v>0</v>
       </c>
-      <c r="P12" s="17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="P12" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -1133,11 +1182,17 @@
       <c r="O13" s="8">
         <v>29.9</v>
       </c>
-      <c r="P13" s="17">
-        <v>29.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="P13" s="8">
+        <v>4.8</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>33.9</v>
+      </c>
+      <c r="R13" s="8">
+        <v>41.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
@@ -1183,11 +1238,17 @@
       <c r="O14" s="8">
         <v>27</v>
       </c>
-      <c r="P14" s="17">
+      <c r="P14" s="8">
         <v>29.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" s="11" customFormat="1" ht="12.75">
+      <c r="Q14" s="8">
+        <v>32.6</v>
+      </c>
+      <c r="R14" s="8">
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" s="11" customFormat="1" ht="12.75">
       <c r="A16" s="10" t="s">
         <v>3</v>
       </c>
@@ -1217,7 +1278,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/regionseng/7/trade/trade.xlsx
+++ b/regionseng/7/trade/trade.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15480" windowHeight="8850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16605" windowHeight="8610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0;\-#,##0.0;\-"/>
     <numFmt numFmtId="165" formatCode="#,##0;\-#,##0;\-"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,13 +90,6 @@
       <b/>
       <sz val="11"/>
       <name val="LiterNusx"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -195,10 +188,10 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -210,32 +203,29 @@
     <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -544,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+      <selection sqref="A1:S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -556,29 +546,30 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="17.25" customHeight="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:19" ht="17.25" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-    </row>
-    <row r="3" spans="1:18" s="6" customFormat="1">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+    </row>
+    <row r="3" spans="1:19" s="5" customFormat="1">
       <c r="A3" s="2"/>
       <c r="B3" s="3">
         <v>2006</v>
@@ -613,7 +604,7 @@
       <c r="L3" s="4">
         <v>2016</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <v>2017</v>
       </c>
       <c r="N3" s="4">
@@ -631,654 +622,690 @@
       <c r="R3" s="4">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="7" t="s">
+      <c r="S3" s="4">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>3.9</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>5</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <v>4.0999999999999996</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>5.4</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="7">
         <v>3.2</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="7">
         <v>5.9</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>8.9</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="7">
         <v>11.2</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <v>10.7</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="7">
         <v>12</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L4" s="7">
         <v>22.7</v>
       </c>
-      <c r="M4" s="8">
+      <c r="M4" s="7">
         <v>29</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>23.7</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>28.5</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="7">
         <v>35.299999999999997</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="Q4" s="7">
         <v>44.1</v>
       </c>
-      <c r="R4" s="8">
+      <c r="R4" s="7">
         <v>45.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="7" t="s">
+      <c r="S4" s="7">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0.9</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.8</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="7">
         <v>0.7</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="7">
         <v>0.4</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="7">
         <v>0.9</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>0.8</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="7">
         <v>0.9</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="7">
         <v>1.6</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="7">
         <v>2.2000000000000002</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="7">
         <v>2.9</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="7">
         <v>4.7</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>4.2</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>6.4</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="7">
         <v>9.6</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="7">
         <v>13.2</v>
       </c>
-      <c r="R5" s="8">
+      <c r="R5" s="7">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="7" t="s">
+      <c r="S5" s="7">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="8">
         <v>740</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>232</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>170</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>257</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>177</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="8">
         <v>169</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="8">
         <v>119</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>172</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>170</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>240</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="8">
         <v>428</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="8">
         <v>590</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="8">
         <v>496</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="8">
         <v>580</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <v>360</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="8">
         <v>370</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="8">
         <v>510</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="7" t="s">
+      <c r="S6" s="8">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="8">
         <v>231</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>51</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>22</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>83</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
         <v>76</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="8">
         <v>54</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="8">
         <v>91</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>144</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>83</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>72</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>177</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>165</v>
       </c>
-      <c r="N7" s="9">
+      <c r="N7" s="8">
         <v>147</v>
       </c>
-      <c r="O7" s="9">
+      <c r="O7" s="8">
         <v>204</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <v>142</v>
       </c>
-      <c r="Q7" s="9">
+      <c r="Q7" s="8">
         <v>158</v>
       </c>
-      <c r="R7" s="9">
+      <c r="R7" s="8">
         <v>312</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="7" t="s">
+      <c r="S7" s="8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>74.7</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>166.3</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="7">
         <v>117.4</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>82.7</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>89.9</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>172.4</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>150</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="7">
         <v>141.30000000000001</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="7">
         <v>158.9</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="7">
         <v>234.9</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="7">
         <v>367.8</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="7">
         <v>413.3</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>477.1</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>590</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="7">
         <v>660.9</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="7">
         <v>565.29999999999995</v>
       </c>
-      <c r="R8" s="8">
+      <c r="R8" s="7">
         <v>542.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="7" t="s">
+      <c r="S8" s="7">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="7">
         <v>0.2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>0.3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="7">
         <v>0.3</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="7">
         <v>0.3</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="7">
         <v>0.2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>0.2</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>0.1</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>0.2</v>
       </c>
-      <c r="J9" s="8">
+      <c r="J9" s="7">
         <v>0.2</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="7">
         <v>0.3</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="7">
         <v>0.5</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="7">
         <v>1</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>1.2</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>2.9</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="7">
         <v>0.9</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="7">
         <v>1.4</v>
       </c>
-      <c r="R9" s="8">
+      <c r="R9" s="7">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="7" t="s">
+      <c r="S9" s="7">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="7">
         <v>0.3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>0.1</v>
       </c>
-      <c r="D10" s="8">
-        <v>0</v>
-      </c>
-      <c r="E10" s="8">
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
         <v>0.1</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="7">
         <v>0.1</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="7">
         <v>0.1</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="7">
         <v>0.2</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="7">
         <v>0.2</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>0.2</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="7">
         <v>0.2</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="7">
         <v>0.8</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="7">
         <v>0.8</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>0.8</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>1.4</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="7">
         <v>1.1000000000000001</v>
       </c>
-      <c r="R10" s="8">
+      <c r="R10" s="7">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="7" t="s">
+      <c r="S10" s="7">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="7">
         <v>0.7</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>0.6</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="7">
         <v>0.4</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="7">
         <v>0.7</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="7">
         <v>0.3</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>0.7</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="7">
         <v>0.6</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="7">
         <v>0.7</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>1.4</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="7">
         <v>1.9</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="7">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="7">
         <v>3.7</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>2.9</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>3.6</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="7">
         <v>8.6</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="7">
         <v>11.8</v>
       </c>
-      <c r="R11" s="8">
+      <c r="R11" s="7">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="7" t="s">
+      <c r="S11" s="7">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="8">
-        <v>0</v>
-      </c>
-      <c r="C12" s="8">
-        <v>0</v>
-      </c>
-      <c r="D12" s="8">
-        <v>0</v>
-      </c>
-      <c r="E12" s="8">
-        <v>0</v>
-      </c>
-      <c r="F12" s="8">
-        <v>0</v>
-      </c>
-      <c r="G12" s="8">
-        <v>0</v>
-      </c>
-      <c r="H12" s="8">
-        <v>0</v>
-      </c>
-      <c r="I12" s="8">
-        <v>0</v>
-      </c>
-      <c r="J12" s="8">
-        <v>0</v>
-      </c>
-      <c r="K12" s="8">
-        <v>0</v>
-      </c>
-      <c r="L12" s="8">
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
         <v>0.2</v>
       </c>
-      <c r="M12" s="8">
-        <v>0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="7" t="s">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
+        <v>0</v>
+      </c>
+      <c r="S12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="8">
+      <c r="B13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="7">
         <v>4.5</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>3.7</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <v>4.7</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <v>3.1</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>5.2</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="7">
         <v>8.5</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="7">
         <v>10.7</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>9.4</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="7">
         <v>10.199999999999999</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="7">
         <v>20.3</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="7">
         <v>25.7</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>22.3</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>29.9</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="7">
         <v>4.8</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="7">
         <v>33.9</v>
       </c>
-      <c r="R13" s="8">
+      <c r="R13" s="7">
         <v>41.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="7" t="s">
+      <c r="S13" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C14" s="8">
+      <c r="B14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="7">
         <v>4.2</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="7">
         <v>3.5</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="7">
         <v>4.5</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="7">
         <v>2.9</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="7">
         <v>8.4</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="7">
         <v>10.6</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="7">
         <v>10</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="7">
         <v>19.899999999999999</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="7">
         <v>24.7</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>21.2</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <v>27</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="7">
         <v>29.9</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="7">
         <v>32.6</v>
       </c>
-      <c r="R14" s="8">
+      <c r="R14" s="7">
         <v>39.9</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" s="11" customFormat="1" ht="12.75">
-      <c r="A16" s="10" t="s">
+      <c r="S14" s="7">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="10" customFormat="1" ht="12.75">
+      <c r="A16" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="12"/>
-    </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="12.75">
-      <c r="A17" s="10" t="s">
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" s="10" customFormat="1" ht="12.75">
+      <c r="A17" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="13"/>
+      <c r="A19" s="12"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="15"/>
+      <c r="A32" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
